--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/80.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/80.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1394227021661273</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.653276661032156</v>
+        <v>-2.653230307060723</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0385839249745128</v>
+        <v>-0.03788373603760602</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2309686883522612</v>
+        <v>0.2295927073055175</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1423524718817644</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.805475656787189</v>
+        <v>-2.804918799209318</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1158828318628547</v>
+        <v>-0.1154619865958985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2453835536265248</v>
+        <v>0.2440832027436979</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1492857766872521</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.041982462887415</v>
+        <v>-3.040442718138964</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2158842061811128</v>
+        <v>-0.2150461751712609</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2627748318033189</v>
+        <v>0.2615635293392973</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.160542525704457</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.243191329662201</v>
+        <v>-3.239763575458876</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2810499610469055</v>
+        <v>-0.279864885171984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3020525035445403</v>
+        <v>0.3012547272993539</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1748742323365115</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.389846756386271</v>
+        <v>-3.387058199052179</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3386264729319222</v>
+        <v>-0.3373431998280443</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2870246679901449</v>
+        <v>0.2870142993386402</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1863153498222983</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.13365323564231</v>
+        <v>-3.134228695800822</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4109801429731908</v>
+        <v>-0.4086746428150831</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2833608744849194</v>
+        <v>0.2840110499263327</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.18845824456501</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.818061979872562</v>
+        <v>-2.818910989454595</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4402551156157441</v>
+        <v>-0.4394664881807088</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2732770559362437</v>
+        <v>0.2741346044077514</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1730534719364427</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.387797097984705</v>
+        <v>-2.389174298872802</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.462021354806852</v>
+        <v>-0.461788975029011</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2436233225534299</v>
+        <v>0.244443665863656</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1318051163070532</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.041919011169679</v>
+        <v>-2.040457031307514</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5172039280356325</v>
+        <v>-0.5174241093999387</v>
       </c>
       <c r="G10" t="n">
-        <v>0.303171707986373</v>
+        <v>0.3038975135917032</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06097511631242286</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.583686826570217</v>
+        <v>-1.581207499019236</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6157109966958579</v>
+        <v>-0.6172608051354748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3055418597362159</v>
+        <v>0.3060377252464122</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.0416988828653412</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.143246638032172</v>
+        <v>-1.139490746504757</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7929594346449342</v>
+        <v>-0.7952167510695788</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3176445157249277</v>
+        <v>0.3178561581997593</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1726750676640144</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.589911352069415</v>
+        <v>-0.5872972320488729</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.067127317732661</v>
+        <v>-1.069394392888133</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3528631653623908</v>
+        <v>0.3523154565946711</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3265408258848306</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02847631951944398</v>
+        <v>-0.02504795539544315</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.442210846233091</v>
+        <v>-1.444822526570926</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4280810229016683</v>
+        <v>0.428009052261812</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5019615037798908</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4545528001138875</v>
+        <v>0.4607129989490429</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.851692681060758</v>
+        <v>-1.855926750398743</v>
       </c>
       <c r="G15" t="n">
-        <v>0.496018867243281</v>
+        <v>0.4962927216271408</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.701856967539914</v>
       </c>
       <c r="E16" t="n">
-        <v>1.026805995707339</v>
+        <v>1.034425124801276</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.308863603682679</v>
+        <v>-2.314524277483577</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5862029583486024</v>
+        <v>0.5864969401147949</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9251076855582031</v>
       </c>
       <c r="E17" t="n">
-        <v>1.534955918253893</v>
+        <v>1.544136444280304</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.649632994909263</v>
+        <v>-2.655148507589095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7045086620967463</v>
+        <v>0.7049685422870144</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.156523814906081</v>
       </c>
       <c r="E18" t="n">
-        <v>1.996681728489768</v>
+        <v>2.005332843368762</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.969016127526353</v>
+        <v>-2.974984201348333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8297314762398902</v>
+        <v>0.8315764862870531</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.377697506092203</v>
       </c>
       <c r="E19" t="n">
-        <v>2.366785864585227</v>
+        <v>2.376031042203374</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.268266693485005</v>
+        <v>-3.274742526270377</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9686677468790372</v>
+        <v>0.9704944593058977</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.575497409607129</v>
       </c>
       <c r="E20" t="n">
-        <v>2.705007617145034</v>
+        <v>2.715143278951234</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.514675561772235</v>
+        <v>-3.52163872117833</v>
       </c>
       <c r="G20" t="n">
-        <v>1.072667151233379</v>
+        <v>1.07507145854112</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.741262219260319</v>
       </c>
       <c r="E21" t="n">
-        <v>3.050166607482174</v>
+        <v>3.058817722361169</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.734436080811328</v>
+        <v>-3.74148035966743</v>
       </c>
       <c r="G21" t="n">
-        <v>1.224011648120289</v>
+        <v>1.225715766491122</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.870798679125352</v>
       </c>
       <c r="E22" t="n">
-        <v>3.3012014191422</v>
+        <v>3.309328002239192</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.92741193333103</v>
+        <v>-3.933339142467668</v>
       </c>
       <c r="G22" t="n">
-        <v>1.315662598453189</v>
+        <v>1.31751736723118</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.960468902373808</v>
       </c>
       <c r="E23" t="n">
-        <v>3.558041455803515</v>
+        <v>3.565040905489875</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.050356998706858</v>
+        <v>-4.058407646679594</v>
       </c>
       <c r="G23" t="n">
-        <v>1.392457710862537</v>
+        <v>1.395123674140603</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.009975458497963</v>
       </c>
       <c r="E24" t="n">
-        <v>3.719294724004873</v>
+        <v>3.725973355415265</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.192067493544194</v>
+        <v>-4.20059814908953</v>
       </c>
       <c r="G24" t="n">
-        <v>1.449040661965131</v>
+        <v>1.452337283222954</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.021254615063419</v>
       </c>
       <c r="E25" t="n">
-        <v>3.878804838912086</v>
+        <v>3.885146794108912</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.151519357033306</v>
+        <v>-4.161280527543982</v>
       </c>
       <c r="G25" t="n">
-        <v>1.451883502239454</v>
+        <v>1.455383837003311</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.995497306383842</v>
       </c>
       <c r="E26" t="n">
-        <v>3.902850351672201</v>
+        <v>3.909697321189375</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.0257381605106</v>
+        <v>-4.037040905531756</v>
       </c>
       <c r="G26" t="n">
-        <v>1.424565155127908</v>
+        <v>1.428818132006872</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.936652006216441</v>
       </c>
       <c r="E27" t="n">
-        <v>4.064746476266852</v>
+        <v>4.07027601712225</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.885700983049922</v>
+        <v>-3.898688633940596</v>
       </c>
       <c r="G27" t="n">
-        <v>1.358093560093198</v>
+        <v>1.363208354888407</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.848395635688164</v>
       </c>
       <c r="E28" t="n">
-        <v>3.993080796748955</v>
+        <v>3.99641462316806</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.748339527598139</v>
+        <v>-3.761048444739538</v>
       </c>
       <c r="G28" t="n">
-        <v>1.292868033001084</v>
+        <v>1.297317404337961</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.738597703401216</v>
       </c>
       <c r="E29" t="n">
-        <v>3.934976093557875</v>
+        <v>3.938025696941615</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.683582419585767</v>
+        <v>-3.694889129091322</v>
       </c>
       <c r="G29" t="n">
-        <v>1.199584325016529</v>
+        <v>1.204430144793292</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.615330244632034</v>
       </c>
       <c r="E30" t="n">
-        <v>3.794295449783228</v>
+        <v>3.79660582930675</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.510787012497628</v>
+        <v>-3.520206932389664</v>
       </c>
       <c r="G30" t="n">
-        <v>1.124600677017122</v>
+        <v>1.128745697936302</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.48573358247751</v>
       </c>
       <c r="E31" t="n">
-        <v>3.619384837788127</v>
+        <v>3.621192642674008</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.361992898920541</v>
+        <v>-3.370310387189354</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9737325281787531</v>
+        <v>0.9785862769243142</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.357548879048321</v>
       </c>
       <c r="E32" t="n">
-        <v>3.454653801887951</v>
+        <v>3.456681178217462</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.223583294785766</v>
+        <v>-3.23158179454064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9049780000509748</v>
+        <v>0.9091827931964759</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.233862942447591</v>
       </c>
       <c r="E33" t="n">
-        <v>3.308653429970708</v>
+        <v>3.308980347453445</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.076737877770888</v>
+        <v>-3.085386857927514</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7834165397303496</v>
+        <v>0.787850663050308</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.118820043833646</v>
       </c>
       <c r="E34" t="n">
-        <v>3.032904632488851</v>
+        <v>3.033935398432555</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.894646669648432</v>
+        <v>-2.903946740127486</v>
       </c>
       <c r="G34" t="n">
-        <v>0.685691999298392</v>
+        <v>0.6899205793502863</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.013596874985674</v>
       </c>
       <c r="E35" t="n">
-        <v>2.734544855678589</v>
+        <v>2.736653961378784</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.812048771920503</v>
+        <v>-2.821057300316072</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6436660249877438</v>
+        <v>0.646297222787235</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9178440615990793</v>
       </c>
       <c r="E36" t="n">
-        <v>2.455284134940016</v>
+        <v>2.457296873173285</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.742868519160354</v>
+        <v>-2.749737445821891</v>
       </c>
       <c r="G36" t="n">
-        <v>0.595340180006965</v>
+        <v>0.5982141262358018</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8325808039324788</v>
       </c>
       <c r="E37" t="n">
-        <v>2.175182943508885</v>
+        <v>2.178730242164852</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.681697744727261</v>
+        <v>-2.688245243192152</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5292796715083828</v>
+        <v>0.531629695875893</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7552786299946618</v>
       </c>
       <c r="E38" t="n">
-        <v>1.947289132245357</v>
+        <v>1.950042924100874</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.610406556504888</v>
+        <v>-2.616095896577594</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5309197482081583</v>
+        <v>0.533924827382496</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6857231365794841</v>
       </c>
       <c r="E39" t="n">
-        <v>1.682847654189731</v>
+        <v>1.685593517076451</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.48682747858558</v>
+        <v>-2.492530846833851</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4705790758161195</v>
+        <v>0.4724368941974941</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6223307122802227</v>
       </c>
       <c r="E40" t="n">
-        <v>1.468878941897038</v>
+        <v>1.471867553213104</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.425951905760033</v>
+        <v>-2.431288101760902</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4337941498807674</v>
+        <v>0.4351445142590876</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5634505745628594</v>
       </c>
       <c r="E41" t="n">
-        <v>1.186846741603322</v>
+        <v>1.189004640957657</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.307784044084834</v>
+        <v>-2.314559652882829</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3878427260945687</v>
+        <v>0.3892626214300381</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5095678108046963</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9448875496133072</v>
+        <v>0.9465587322675969</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.192528553641107</v>
+        <v>-2.198955287812002</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3805901593273575</v>
+        <v>0.3812067891315498</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4589407761324285</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8027022315291232</v>
+        <v>0.8040776026551901</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.050348724843014</v>
+        <v>-2.055498895037475</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3212156012872875</v>
+        <v>0.3223219973949085</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.411119200490683</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6139756963643251</v>
+        <v>0.6143215213880413</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.989313962720836</v>
+        <v>-1.994433026960782</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2853675135114205</v>
+        <v>0.2863793719141455</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3650346576314936</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5320096764575071</v>
+        <v>0.5329642023166178</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.911522239925682</v>
+        <v>-1.916712664884808</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2458275758791973</v>
+        <v>0.2471010902522473</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3194176286606707</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3078400408462026</v>
+        <v>0.3081035265785578</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.865715367339872</v>
+        <v>-1.870757581574549</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1868409273895392</v>
+        <v>0.1875020814031341</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2751395875063619</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1852026804517939</v>
+        <v>0.1854948324559562</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.759553794186459</v>
+        <v>-1.764718602477161</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1429717727937584</v>
+        <v>0.1437451522118749</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2319099031522852</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09411041745879468</v>
+        <v>0.09417445912985324</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.738409674085634</v>
+        <v>-1.74275230930408</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1361241933559079</v>
+        <v>0.1370732299289279</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1907270878214037</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.02914235289845286</v>
+        <v>-0.02885691002173477</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.679268715664758</v>
+        <v>-1.683950466779476</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07063457061076193</v>
+        <v>0.07137562423301083</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1515535942558404</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1363877550944476</v>
+        <v>-0.1359833776857637</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.644873458940905</v>
+        <v>-1.649246590193189</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04087715071290094</v>
+        <v>0.04188290990885849</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1141077765027344</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2459575649895293</v>
+        <v>-0.2452945812139041</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.644871019258198</v>
+        <v>-1.647923672245322</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01145274750454438</v>
+        <v>0.01222002771589344</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07849926500001619</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.340018921836938</v>
+        <v>-0.3393730158402618</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.612608045220256</v>
+        <v>-1.615103230708832</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01801922951659853</v>
+        <v>-0.0166316599769967</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04420449761288141</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4445080924947083</v>
+        <v>-0.4444775964608709</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.56434929151392</v>
+        <v>-1.567040871460409</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03718232725934576</v>
+        <v>-0.03566911406033383</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.01155067134999974</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5170581569938898</v>
+        <v>-0.5167568561795762</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.574858224774289</v>
+        <v>-1.576650171722574</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.04080098663449198</v>
+        <v>-0.03975314291183882</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.01990282058162528</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5733934803017241</v>
+        <v>-0.5728293036757321</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.554716204345361</v>
+        <v>-1.557351671589589</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08623275800410132</v>
+        <v>-0.08492569799383023</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.05010354036946599</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6116855202293208</v>
+        <v>-0.6114073964007236</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.51131973827406</v>
+        <v>-1.513825292414141</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1155973889861366</v>
+        <v>-0.1149466036240464</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.07916655497604562</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7109226639396135</v>
+        <v>-0.7103908131094891</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.59779978110949</v>
+        <v>-1.599461205032952</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1291059121347526</v>
+        <v>-0.1279007088774984</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1070946512980011</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7829835720560431</v>
+        <v>-0.7828981831612983</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.602917015587406</v>
+        <v>-1.60342263982843</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1510850136420456</v>
+        <v>-0.1499395826111127</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.133683072187891</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8904552548231114</v>
+        <v>-0.8914311279059083</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.618495609512905</v>
+        <v>-1.617989375351204</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1639579994454901</v>
+        <v>-0.1629339426292301</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1588308700077297</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9861731562285678</v>
+        <v>-0.9856614327807762</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.628356807014568</v>
+        <v>-1.628870970145066</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1985148851486816</v>
+        <v>-0.1970096009184673</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1825242551213714</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.063686145274448</v>
+        <v>-1.063414120652619</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.653111047601064</v>
+        <v>-1.65370450041954</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2058052669978511</v>
+        <v>-0.2045329724661546</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.20482096510331</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.105582816401626</v>
+        <v>-1.104727097692148</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.619523325853226</v>
+        <v>-1.621509227576717</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2368221730931968</v>
+        <v>-0.2350003400317504</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2257621044085004</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.106551980356979</v>
+        <v>-1.106635539489693</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.680198234776122</v>
+        <v>-1.682399438498506</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2679653327686294</v>
+        <v>-0.266056281050408</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2453927785268953</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.174598390579052</v>
+        <v>-1.1726350559206</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.780431988872222</v>
+        <v>-1.782674667200624</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2787096954102232</v>
+        <v>-0.2764121242209133</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2636556414312973</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.167252505948299</v>
+        <v>-1.16626016500723</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.853591364127474</v>
+        <v>-1.85603043691379</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3070954037060778</v>
+        <v>-0.3048502856949682</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2800156772674904</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.191937825498323</v>
+        <v>-1.191363890141503</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.95452530716048</v>
+        <v>-1.957438288312629</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3516068047744744</v>
+        <v>-0.3494001117659999</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.29394345587429</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.199813731197171</v>
+        <v>-1.198699406120752</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.025870778323084</v>
+        <v>-2.028881346783513</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3716365997988806</v>
+        <v>-0.3692853555900168</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3048211328036466</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.183320866177226</v>
+        <v>-1.183741711444182</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.176945080350194</v>
+        <v>-2.179141404707164</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4243636323830735</v>
+        <v>-0.4219379778516464</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3115969258255354</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.174383698500837</v>
+        <v>-1.173771948062059</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.317516548323703</v>
+        <v>-2.319101122241895</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4293180180402979</v>
+        <v>-0.4266453456347879</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3136010223893325</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.150185705571535</v>
+        <v>-1.149155549548507</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.443285241472537</v>
+        <v>-2.444392247500834</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4588650153046808</v>
+        <v>-0.4559867996311067</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3103388365296313</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.270333979684134</v>
+        <v>-1.268256589859131</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.560871848742794</v>
+        <v>-2.561096299551838</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4888157800570709</v>
+        <v>-0.4865419957741542</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3019550289338745</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.268152903344083</v>
+        <v>-1.265016081303568</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.6821557951555</v>
+        <v>-2.682042349909624</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4930071549476836</v>
+        <v>-0.4909132972644075</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2890749019764858</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.231949231813672</v>
+        <v>-1.227713332713657</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.821282361045792</v>
+        <v>-2.82066939076566</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.540942040774667</v>
+        <v>-0.5381730009022307</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2724789876218164</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.197972990594745</v>
+        <v>-1.193663291092843</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.912425247454961</v>
+        <v>-2.911077322759348</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5871911058511187</v>
+        <v>-0.5842573873959606</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2534838801545904</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.193569363308624</v>
+        <v>-1.187437830745276</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.039405243067816</v>
+        <v>-3.03777096061447</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6012967413422711</v>
+        <v>-0.5989430574507003</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2328981715156798</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.079727059072922</v>
+        <v>-1.074039548762246</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.083220724644043</v>
+        <v>-3.081566314808364</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6016425663659872</v>
+        <v>-0.5993754912105147</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2120641700352945</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9741131946872285</v>
+        <v>-0.968447031600239</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.119181647745108</v>
+        <v>-3.116966110886821</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6108127237408942</v>
+        <v>-0.6088048648730396</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1912679412337959</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.800208341888085</v>
+        <v>-0.793032625126144</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.159175976281509</v>
+        <v>-3.157003133870594</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5865738661262497</v>
+        <v>-0.5851838569039408</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1709600238029583</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6175041634854972</v>
+        <v>-0.6096343569934171</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.198546965886273</v>
+        <v>-3.198010845611411</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6248396794647461</v>
+        <v>-0.6218242316389037</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1513624358786475</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4286867501398637</v>
+        <v>-0.4214848067888226</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.207916567322477</v>
+        <v>-3.208402674101845</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5793859509507738</v>
+        <v>-0.5764436936061412</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1322707059002543</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1734648330339621</v>
+        <v>-0.1660012337125961</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.239056067473848</v>
+        <v>-3.238110080504212</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.531328471067764</v>
+        <v>-0.5290681050397358</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1140981922886516</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09728566450194508</v>
+        <v>0.1050719118613108</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.219318424453605</v>
+        <v>-3.217725311645939</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.455766008346124</v>
+        <v>-0.4532592343646894</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09664206948566027</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3134732682166477</v>
+        <v>0.3213546632015861</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.245855158217898</v>
+        <v>-3.243846384469028</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4209529559586983</v>
+        <v>-0.4186322077836719</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.08000612665624715</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6018608419620785</v>
+        <v>0.6098477532240942</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.188737306681796</v>
+        <v>-3.18508845623315</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3627909202240035</v>
+        <v>-0.3607123105576461</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06464023459721037</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8292563480327034</v>
+        <v>0.8364393838427653</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.131602987287421</v>
+        <v>-3.127874847150799</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3434887605669577</v>
+        <v>-0.3423976124762554</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05150530642333657</v>
       </c>
       <c r="E86" t="n">
-        <v>1.08908743569279</v>
+        <v>1.095820350043412</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.059303905146721</v>
+        <v>-3.054788052456079</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.325580879576958</v>
+        <v>-0.3238511445377005</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04211152331880518</v>
       </c>
       <c r="E87" t="n">
-        <v>1.295125959346405</v>
+        <v>1.301226385955239</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.941373302614778</v>
+        <v>-2.936920881674517</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2833499719189224</v>
+        <v>-0.2820575500048933</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0390801991343707</v>
       </c>
       <c r="E88" t="n">
-        <v>1.432053761197021</v>
+        <v>1.438281661227295</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.777732804884627</v>
+        <v>-2.772904062886813</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.236616019904456</v>
+        <v>-0.2354425325223927</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04412422061501889</v>
       </c>
       <c r="E89" t="n">
-        <v>1.51772748889779</v>
+        <v>1.522612953518542</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.525322622098534</v>
+        <v>-2.520186480079639</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2204573914153697</v>
+        <v>-0.2194430933299377</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05984784044180305</v>
       </c>
       <c r="E90" t="n">
-        <v>1.576699499291206</v>
+        <v>1.580957355535585</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.285209659997035</v>
+        <v>-2.280581581901871</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1801093088864554</v>
+        <v>-0.1789766861897343</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08707047821372085</v>
       </c>
       <c r="E91" t="n">
-        <v>1.57620180401898</v>
+        <v>1.579805215377208</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.933705664859685</v>
+        <v>-1.929123330815277</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1541882900453397</v>
+        <v>-0.1542126868724096</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1251751264128781</v>
       </c>
       <c r="E92" t="n">
-        <v>1.562295002668448</v>
+        <v>1.566436973984244</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.600190060241666</v>
+        <v>-1.596319503627023</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1467527470751041</v>
+        <v>-0.1463514192698039</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1718060215366027</v>
       </c>
       <c r="E93" t="n">
-        <v>1.514640070432091</v>
+        <v>1.51967435569797</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.264527534841493</v>
+        <v>-1.261085752462604</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1161078925925747</v>
+        <v>-0.1161969410113799</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2206401793552495</v>
       </c>
       <c r="E94" t="n">
-        <v>1.504092102248411</v>
+        <v>1.509297775224455</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9430334667621777</v>
+        <v>-0.9408517805014499</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1091852929114842</v>
+        <v>-0.1096915270731851</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2654020466355341</v>
       </c>
       <c r="E95" t="n">
-        <v>1.476489532101501</v>
+        <v>1.480777274459039</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6884013429506914</v>
+        <v>-0.6866264737813546</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1607711639094815</v>
+        <v>-0.1610187917042412</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2987405866276162</v>
       </c>
       <c r="E96" t="n">
-        <v>1.400151860199714</v>
+        <v>1.404295051356863</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4254316034880593</v>
+        <v>-0.4242953212672776</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.232309370005938</v>
+        <v>-0.2318720568807096</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3149484120747317</v>
       </c>
       <c r="E97" t="n">
-        <v>1.31282097802022</v>
+        <v>1.316509778273192</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2395143629603628</v>
+        <v>-0.2400090086292054</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2622491561861466</v>
+        <v>-0.2623064887297609</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3124912228789028</v>
       </c>
       <c r="E98" t="n">
-        <v>1.228679371059441</v>
+        <v>1.231624068086781</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.08549963335065017</v>
+        <v>-0.08726840331321953</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3008437167694102</v>
+        <v>-0.3005985286573575</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.294556228554851</v>
       </c>
       <c r="E99" t="n">
-        <v>1.152813777761457</v>
+        <v>1.154212325873241</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1167866582996107</v>
+        <v>0.1146379077554273</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3445469729411156</v>
+        <v>-0.3442237149824391</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2715076597365458</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9659456708987106</v>
+        <v>0.967954139687242</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1809112785701946</v>
+        <v>0.1790272335997198</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3155854995264108</v>
+        <v>-0.3156940654068719</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2523286184955621</v>
       </c>
       <c r="E101" t="n">
-        <v>0.829835772675614</v>
+        <v>0.8322498387141829</v>
       </c>
       <c r="F101" t="n">
-        <v>0.224185760506146</v>
+        <v>0.2228902889887331</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3679447499425246</v>
+        <v>-0.3680094015342599</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2491081927744969</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7047404319539107</v>
+        <v>0.7079004309801423</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2201724824531438</v>
+        <v>0.219411911369239</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3354335381891461</v>
+        <v>-0.3359379425888168</v>
       </c>
     </row>
   </sheetData>
